--- a/docs/mcode/onco-core-CancerRelatedSurgicalProcedure.xlsx
+++ b/docs/mcode/onco-core-CancerRelatedSurgicalProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="331">
   <si>
     <t>Path</t>
   </si>
@@ -146,8 +146,7 @@
     <t>onco-core-CancerRelatedSurgicalProcedure</t>
   </si>
   <si>
-    <t>A surgical action addressing a cancer condition. Any surgical procedure relevant to the cancer condition is of interest in mCODE.
-In the context of FHIR, the way to indicate that unrelated surgeries are _not_ included in mCODE involves constraining the ReasonReference or ReasonCode to a cancer condition.</t>
+    <t>A surgical action addressing a cancer condition.</t>
   </si>
   <si>
     <t xml:space="preserve">pro-1:Reason not performed is only permitted if notPerformed indicator is true {null}
@@ -399,30 +398,14 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+    <t>cancerreasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-CancerReasonReference-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-CancerCondition]]}
-</t>
-  </si>
-  <si>
-    <t>CancerCondition</t>
-  </si>
-  <si>
-    <t>Abstract class for describing a primary or secondary metastatic neoplastic diseases.</t>
+    <t>Reference to a primary or secondary cancer condition.</t>
   </si>
   <si>
     <t>partof</t>
@@ -438,6 +421,9 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
   </si>
   <si>
+    <t>Procedure.extension.valueReference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
 </t>
   </si>
@@ -452,7 +438,7 @@
 </t>
   </si>
   <si>
-    <t>The purpose of a treatment. A simplified set of values include only two choices: curative and palliative. Curative is defined as any treatment meant to reduce or control a disease process, even if a 'cure' is not anticipated. Palliative includes treatments meant to reduce symptoms and side effects, such as antiemetics. If a treatment does both, it should be recorded as curative.</t>
+    <t>The purpose of a treatment.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -553,7 +539,7 @@
     <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/SurgicalProcedureVS</t>
+    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerRelatedSurgicalProcedureVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -650,7 +636,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -667,7 +653,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -687,7 +673,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -1237,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM66"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1270,7 +1256,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.26953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -2366,7 +2352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>86</v>
       </c>
@@ -2384,7 +2370,7 @@
         <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>39</v>
@@ -2894,7 +2880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>86</v>
       </c>
@@ -2912,7 +2898,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>39</v>
@@ -3002,9 +2988,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3025,13 +3013,11 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3055,7 +3041,7 @@
         <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>39</v>
@@ -3082,13 +3068,13 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -3097,7 +3083,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3108,7 +3094,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3119,7 +3105,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3131,13 +3117,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3188,13 +3174,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -3203,7 +3189,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -3214,7 +3200,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3222,10 +3208,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3237,13 +3223,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3252,7 +3238,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>39</v>
@@ -3294,13 +3280,13 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -3309,7 +3295,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3320,7 +3306,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3343,13 +3329,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3358,7 +3344,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>39</v>
@@ -3400,10 +3386,10 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>48</v>
@@ -3426,17 +3412,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>48</v>
@@ -3451,11 +3435,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3479,7 +3465,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3506,35 +3492,37 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3546,7 +3534,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -3555,13 +3543,11 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3585,7 +3571,7 @@
         <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>39</v>
@@ -3612,13 +3598,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3627,7 +3613,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3638,24 +3624,24 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>39</v>
@@ -3664,12 +3650,14 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3691,7 +3679,7 @@
         <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>39</v>
@@ -3718,7 +3706,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3733,7 +3721,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3744,7 +3732,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3752,10 +3740,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3764,25 +3752,27 @@
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>39</v>
@@ -3797,7 +3787,7 @@
         <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>39</v>
@@ -3824,13 +3814,13 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3839,18 +3829,18 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>39</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3864,7 +3854,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -3873,13 +3863,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3903,7 +3893,7 @@
         <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>39</v>
@@ -3930,10 +3920,10 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>48</v>
@@ -3945,28 +3935,26 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>48</v>
@@ -3975,17 +3963,19 @@
         <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="L26" t="s" s="2">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4012,13 +4002,11 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>39</v>
@@ -4036,13 +4024,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -4062,40 +4050,38 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I27" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4120,13 +4106,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
@@ -4144,13 +4130,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -4159,7 +4145,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -4168,9 +4154,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4178,33 +4164,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
       </c>
@@ -4228,13 +4212,11 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4252,13 +4234,13 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -4267,18 +4249,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4286,33 +4268,33 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4358,10 +4340,10 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>48</v>
@@ -4373,18 +4355,18 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>155</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4392,28 +4374,28 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4440,11 +4422,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4462,22 +4446,22 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4488,7 +4472,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4499,7 +4483,7 @@
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
@@ -4514,10 +4498,10 @@
         <v>115</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4544,13 +4528,11 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4568,13 +4550,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4583,18 +4565,18 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>39</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4602,13 +4584,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -4617,13 +4599,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4647,14 +4629,16 @@
         <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4671,15 +4655,11 @@
       <c r="AD32" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE32" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="AE32" s="2"/>
       <c r="AF32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4687,52 +4667,54 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
@@ -4751,7 +4733,7 @@
         <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>39</v>
@@ -4766,26 +4748,20 @@
         <v>39</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4793,7 +4769,7 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -4804,9 +4780,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4815,7 +4793,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4827,13 +4805,11 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4857,16 +4833,16 @@
         <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4884,7 +4860,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4893,13 +4869,13 @@
         <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4910,9 +4886,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4930,16 +4908,14 @@
         <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4963,14 +4939,16 @@
         <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -4988,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5003,20 +4981,22 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5025,7 +5005,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -5037,13 +5017,11 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K36" s="2"/>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5093,11 +5071,15 @@
       <c r="AD36" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5105,7 +5087,7 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -5116,11 +5098,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="C37" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5139,17 +5123,13 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K37" s="2"/>
       <c r="L37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5186,20 +5166,26 @@
         <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE37" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5207,7 +5193,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5218,11 +5204,9 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5240,17 +5224,23 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="K38" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5297,15 +5287,11 @@
       <c r="AD38" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5313,22 +5299,20 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>39</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5337,7 +5321,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5346,17 +5330,23 @@
         <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="L39" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5403,15 +5393,11 @@
       <c r="AD39" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5419,22 +5405,20 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5443,7 +5427,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5452,16 +5436,20 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="L40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5483,16 +5471,16 @@
         <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5510,13 +5498,13 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
@@ -5525,7 +5513,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5536,11 +5524,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5558,14 +5544,16 @@
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5589,7 +5577,7 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>39</v>
@@ -5616,7 +5604,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5631,7 +5619,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5642,7 +5630,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5653,7 +5641,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5662,23 +5650,19 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5699,7 +5683,7 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>39</v>
@@ -5725,11 +5709,15 @@
       <c r="AD42" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5737,29 +5725,29 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>218</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5768,23 +5756,21 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5805,7 +5791,7 @@
         <v>39</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>39</v>
@@ -5831,11 +5817,15 @@
       <c r="AD43" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5843,50 +5833,50 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>225</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5912,13 +5902,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -5936,13 +5926,13 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -5951,7 +5941,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -5962,7 +5952,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5973,7 +5963,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5985,13 +5975,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6042,13 +6032,13 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
@@ -6057,18 +6047,18 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6088,16 +6078,16 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6124,13 +6114,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>39</v>
@@ -6148,7 +6138,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6163,32 +6153,32 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>39</v>
@@ -6197,17 +6187,15 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6256,13 +6244,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6271,51 +6259,49 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>39</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I48" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6364,13 +6350,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6379,18 +6365,18 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6413,16 +6399,18 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6470,7 +6458,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6485,18 +6473,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>250</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6522,12 +6510,14 @@
         <v>115</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6552,13 +6542,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6576,7 +6566,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6591,18 +6581,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>257</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6610,13 +6600,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>39</v>
@@ -6625,15 +6615,17 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6682,13 +6674,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6697,18 +6689,18 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>264</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6719,7 +6711,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6728,18 +6720,20 @@
         <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -6764,13 +6758,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -6788,13 +6782,13 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -6803,18 +6797,18 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6825,7 +6819,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6834,21 +6828,19 @@
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
       </c>
@@ -6872,13 +6864,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6896,13 +6888,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -6911,10 +6903,10 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -6922,7 +6914,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6942,20 +6934,18 @@
         <v>39</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -6980,13 +6970,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
@@ -7004,7 +6994,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7019,7 +7009,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7030,7 +7020,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7053,17 +7043,15 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7112,7 +7100,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7127,18 +7115,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>39</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7161,17 +7149,15 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -7196,13 +7182,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7220,7 +7206,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7235,7 +7221,7 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
@@ -7246,7 +7232,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7257,7 +7243,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
@@ -7269,13 +7255,13 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7302,13 +7288,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7326,13 +7312,13 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -7341,7 +7327,7 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
@@ -7352,18 +7338,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7375,15 +7361,17 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>306</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7432,13 +7420,13 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -7447,7 +7435,7 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -7458,11 +7446,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7475,21 +7463,23 @@
         <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7538,7 +7528,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7553,18 +7543,18 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7575,7 +7565,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7587,13 +7577,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7620,13 +7610,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7644,13 +7634,13 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -7670,7 +7660,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7678,7 +7668,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>48</v>
@@ -7693,13 +7683,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7750,10 +7740,10 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>48</v>
@@ -7765,7 +7755,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7776,11 +7766,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7799,18 +7789,20 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>39</v>
       </c>
@@ -7858,7 +7850,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7873,447 +7865,17 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL66" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL66">
+  <autoFilter ref="A1:AL62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8323,7 +7885,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/onco-core-CancerRelatedSurgicalProcedure.xlsx
+++ b/docs/mcode/onco-core-CancerRelatedSurgicalProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="376">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,8 @@
     <t>onco-core-CancerRelatedSurgicalProcedure</t>
   </si>
   <si>
-    <t>A surgical action addressing a cancer condition.</t>
+    <t>A surgical action addressing a cancer condition.
+Conformance note: If an ICD-10-PCS code is used in the code attribute, and there is a semantically equivalent SNOMED CT or CPT code, the resulting Procedure instance will not be compliant with [US Core Profiles](http://hl7.org/fhir/us/core/STU3/index.html).</t>
   </si>
   <si>
     <t xml:space="preserve">pro-1:Reason not performed is only permitted if notPerformed indicator is true {null}
@@ -168,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -184,7 +185,7 @@
     <t>Procedure.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -194,13 +195,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>Procedure.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Procedure.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Procedure.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Procedure.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>Procedure.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -213,7 +347,7 @@
     <t>Procedure.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -242,7 +376,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -269,7 +403,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -288,283 +422,224 @@
     <t>Procedure.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>procedurepartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ProcedurePartOf-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>statusreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-StatusReason-extension}
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
+    <t>complicationreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ComplicationReference-extension}
+</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a reference to a Condition.</t>
+  </si>
+  <si>
+    <t>usedcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-UsedCode-extension}
+</t>
+  </si>
+  <si>
+    <t>Item used during an activity, represented as a code.</t>
   </si>
   <si>
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
-    <t>reasoncode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension]]} {[]}
+    <t>occurrencetimeorperiod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-OccurrenceTimeOrPeriod-extension}
 </t>
   </si>
   <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
-  </si>
-  <si>
-    <t>Procedure.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>The point or period of time when the event takes place. Times can be precise (dateTime) or approximate (date). If a time period is used, and the start date or dateTime is missing, the start of the period is not known. If the end date or dateTime is missing, it means that the period is ongoing.</t>
+  </si>
+  <si>
+    <t>personauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-PersonAuthor-extension}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Procedure.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Procedure.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>personinformationsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-PersonInformationSource-extension}
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerDisorderVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>cancerreasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-CancerReasonReference-extension]]} {[]}
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
+    <t>treatmentintent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-TreatmentIntent-extension}
 </t>
   </si>
   <si>
-    <t>Reference to a primary or secondary cancer condition.</t>
-  </si>
-  <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+    <t>The purpose of a treatment.</t>
+  </si>
+  <si>
+    <t>Procedure.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Procedure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Procedure.extension.valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+    <t>External Identifiers for this procedure</t>
+  </si>
+  <si>
+    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
+  </si>
+  <si>
+    <t>Need to allow connection to a wider workflow.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
+  </si>
+  <si>
+    <t>Procedure.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>A procedure that has been performed.</t>
-  </si>
-  <si>
-    <t>treatmentintent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension]]} {[]}
+    <t>Who the procedure was performed on</t>
+  </si>
+  <si>
+    <t>The person, animal or group on which the procedure was performed.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Procedure.status</t>
+  </si>
+  <si>
+    <t>in-progress | aborted | completed | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
+  </si>
+  <si>
+    <t>Procedure.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The purpose of a treatment.</t>
-  </si>
-  <si>
-    <t>Procedure.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Procedure.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t>Classification of the procedure</t>
+  </si>
+  <si>
+    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Procedure.code</t>
+  </si>
+  <si>
+    <t>SNOMED-CT | ICD-10 | CPT-4</t>
+  </si>
+  <si>
+    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-CancerRelatedSurgicalProcedureVS</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>OBR-44/OBR-45</t>
+  </si>
+  <si>
+    <t>Procedure.notPerformed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>External Identifiers for this procedure</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this procedure that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate (e.g. in CDA documents, or in written / printed documentation).</t>
-  </si>
-  <si>
-    <t>Need to allow connection to a wider workflow.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
-  </si>
-  <si>
-    <t>Procedure.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
-</t>
-  </si>
-  <si>
-    <t>Who the procedure was performed on</t>
-  </si>
-  <si>
-    <t>The person, animal or group on which the procedure was performed.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Procedure.status</t>
-  </si>
-  <si>
-    <t>in-progress | aborted | completed | entered-in-error</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-status</t>
-  </si>
-  <si>
-    <t>Procedure.category</t>
-  </si>
-  <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Procedure.code</t>
-  </si>
-  <si>
-    <t>SNOMED-CT | ICD-10 | CPT-4</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/CancerRelatedSurgicalProcedureVS</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>OBR-44/OBR-45</t>
-  </si>
-  <si>
-    <t>Procedure.notPerformed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>True if procedure was not performed as scheduled</t>
   </si>
   <si>
     <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+    <t>false</t>
   </si>
   <si>
     <t>.actionNegationInd</t>
@@ -604,7 +679,10 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -616,56 +694,47 @@
     <t>Procedure.bodySite.id</t>
   </si>
   <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Procedure.bodySite.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -674,18 +743,18 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>surgicalbodylocationrole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SurgicalBodyLocationRole-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SurgicalBodyLocationRole-extension}
 </t>
   </si>
   <si>
@@ -695,31 +764,31 @@
     <t>Procedure.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.text</t>
-  </si>
-  <si>
     <t>Plain text representation of the concept</t>
   </si>
   <si>
@@ -741,8 +810,34 @@
     <t>Procedure.reason[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}</t>
+    <t>CodeableConcept
+Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition|http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-SecondaryCancerCondition)</t>
+  </si>
+  <si>
+    <t>Reference to a primary or secondary cancer condition</t>
+  </si>
+  <si>
+    <t>Reference to a primary or secondary cancer condition.</t>
+  </si>
+  <si>
+    <t>e.g. endoscopy for dilatation and biopsy, combination diagnosis and therapeutic.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-CancerDisorderVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>Procedure.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-SecondaryCancerCondition)
+</t>
   </si>
   <si>
     <t>Reason procedure performed</t>
@@ -751,22 +846,14 @@
     <t>The reason why the procedure was performed. This may be due to a Condition, may be coded entity of some type, or may simply be present as text.</t>
   </si>
   <si>
-    <t>e.g. endoscopy for dilatation and biopsy, combination diagnosis and therapeutic.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure is  required.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
+</t>
   </si>
   <si>
     <t>Procedure.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -783,6 +870,67 @@
   </si>
   <si>
     <t>Procedure.performer.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exists:url}
+</t>
+  </si>
+  <si>
+    <t>onbehalfof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-OnBehalfOf-extension}
+</t>
+  </si>
+  <si>
+    <t>The party represented by the actual participant.</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.id</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-OnBehalfOf-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization: A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
+Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here. Other required attributes come from STU 3 mapping to us-core-organization.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -798,14 +946,14 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.</t>
+    <t>Constrains participants to classes that are accepted by FHIR as actors in procedures in STU 3</t>
+  </si>
+  <si>
+    <t>Constrains participants to classes that are accepted by FHIR as actors in procedures in STU 3.</t>
   </si>
   <si>
     <t>.role</t>
@@ -841,8 +989,8 @@
     <t>Procedure.performed[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Date/Period the procedure was performed</t>
@@ -863,7 +1011,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -885,7 +1033,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -925,7 +1073,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-DiagnosticReport)
 </t>
   </si>
   <si>
@@ -983,20 +1131,20 @@
     <t>Procedure.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-ProcedureRequest|ReferralRequest)
 </t>
   </si>
   <si>
     <t>A request for this procedure</t>
   </si>
   <si>
-    <t>A reference to a resource that contains details of the request for this procedure.</t>
+    <t>A request for this procedure.</t>
   </si>
   <si>
     <t>Procedure.notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation]]} {[]}
+    <t xml:space="preserve">Annotation {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Annotation}
 </t>
   </si>
   <si>
@@ -1048,7 +1196,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-device)
 </t>
   </si>
   <si>
@@ -1061,7 +1209,7 @@
     <t>Procedure.used</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance]]}
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-device|http://fhir.org/guides/argonaut/StructureDefinition/argo-medication|Substance)
 </t>
   </si>
   <si>
@@ -1127,67 +1275,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1223,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM62"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1232,8 +1380,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1242,11 +1390,11 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.45703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1255,8 +1403,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.26953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.12890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1727,23 +1875,21 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>62</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1765,7 +1911,7 @@
         <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>39</v>
@@ -1791,15 +1937,11 @@
       <c r="AD5" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE5" t="s" s="2">
-        <v>58</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG5" s="2"/>
       <c r="AH5" t="s" s="2">
         <v>39</v>
       </c>
@@ -1807,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1818,18 +1960,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1873,41 +2015,35 @@
         <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>63</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG6" s="2"/>
       <c r="AH6" t="s" s="2">
         <v>39</v>
       </c>
@@ -1915,7 +2051,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1926,11 +2062,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1949,17 +2087,13 @@
         <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>39</v>
@@ -1981,7 +2115,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>39</v>
@@ -2008,22 +2142,22 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -2034,18 +2168,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -2054,19 +2188,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2089,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>39</v>
@@ -2115,15 +2249,11 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -2131,7 +2261,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2142,18 +2272,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>39</v>
@@ -2162,19 +2292,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2197,7 +2327,7 @@
         <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>39</v>
@@ -2212,24 +2342,22 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2237,7 +2365,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2248,11 +2376,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2261,7 +2387,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2270,16 +2396,20 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2301,7 +2431,7 @@
         <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
         <v>39</v>
@@ -2327,15 +2457,11 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>86</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2354,11 +2480,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2367,7 +2491,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2376,16 +2500,20 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2407,16 +2535,16 @@
         <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2433,15 +2561,11 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>86</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2460,7 +2584,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2471,7 +2595,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
@@ -2480,18 +2604,20 @@
         <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2516,10 +2642,10 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>39</v>
@@ -2539,15 +2665,11 @@
       <c r="AD12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2555,7 +2677,7 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>39</v>
@@ -2566,7 +2688,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2577,27 +2699,29 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2619,7 +2743,7 @@
         <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>39</v>
@@ -2646,13 +2770,13 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2672,7 +2796,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2680,7 +2804,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>48</v>
@@ -2695,47 +2819,49 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
       </c>
@@ -2752,10 +2878,10 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>48</v>
@@ -2767,7 +2893,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2778,15 +2904,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>48</v>
@@ -2809,7 +2935,9 @@
       <c r="L15" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2831,14 +2959,16 @@
         <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2856,7 +2986,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2865,13 +2995,13 @@
         <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2882,20 +3012,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s" s="2">
         <v>121</v>
       </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2907,13 +3035,17 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2962,7 +3094,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2977,7 +3109,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -2988,20 +3120,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -3013,13 +3143,17 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3056,19 +3190,17 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3083,7 +3215,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3094,9 +3226,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3117,13 +3251,11 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3147,7 +3279,7 @@
         <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>39</v>
@@ -3174,13 +3306,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -3189,7 +3321,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -3200,9 +3332,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3211,7 +3345,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3223,13 +3357,11 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3253,7 +3385,7 @@
         <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>39</v>
@@ -3280,7 +3412,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3306,18 +3438,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3329,13 +3463,11 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3344,7 +3476,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>39</v>
@@ -3359,7 +3491,7 @@
         <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>39</v>
@@ -3386,13 +3518,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3401,7 +3533,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3414,16 +3546,18 @@
       <c r="A21" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3435,13 +3569,11 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3465,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>39</v>
@@ -3492,13 +3624,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3507,7 +3639,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3516,12 +3648,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
@@ -3534,7 +3666,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -3543,11 +3675,11 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3598,7 +3730,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3622,42 +3754,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3706,7 +3836,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3721,7 +3851,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3732,9 +3862,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3743,7 +3875,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3752,21 +3884,17 @@
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3814,7 +3942,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3829,32 +3957,34 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -3863,13 +3993,11 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3920,13 +4048,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3935,26 +4063,28 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>48</v>
@@ -3963,19 +4093,17 @@
         <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4002,11 +4130,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>39</v>
@@ -4024,13 +4154,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -4050,38 +4180,40 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4106,57 +4238,57 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4164,31 +4296,33 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
       </c>
@@ -4212,55 +4346,57 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK28" t="s" s="2">
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4268,33 +4404,33 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4340,10 +4476,10 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>48</v>
@@ -4355,18 +4491,18 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4374,28 +4510,28 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4422,13 +4558,11 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4446,22 +4580,22 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4472,7 +4606,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4483,7 +4617,7 @@
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
@@ -4495,13 +4629,13 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4528,55 +4662,57 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4584,13 +4720,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -4599,13 +4735,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4629,16 +4765,14 @@
         <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4655,11 +4789,15 @@
       <c r="AD32" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG32" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4667,13 +4805,13 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -4682,39 +4820,37 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
@@ -4733,7 +4869,7 @@
         <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>39</v>
@@ -4748,20 +4884,26 @@
         <v>39</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE33" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4769,7 +4911,7 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -4780,11 +4922,9 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4793,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4805,11 +4945,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="L34" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4833,16 +4975,16 @@
         <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4860,7 +5002,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4869,13 +5011,13 @@
         <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4886,11 +5028,9 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4908,14 +5048,16 @@
         <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="K35" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4939,16 +5081,16 @@
         <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -4966,7 +5108,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4981,22 +5123,20 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5005,7 +5145,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -5017,11 +5157,13 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="L36" t="s" s="2">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5071,15 +5213,11 @@
       <c r="AD36" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5087,7 +5225,7 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -5098,13 +5236,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5123,13 +5259,17 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="L37" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5166,26 +5306,20 @@
         <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5193,7 +5327,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5204,9 +5338,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5224,23 +5360,17 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="K38" s="2"/>
       <c r="L38" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5287,11 +5417,15 @@
       <c r="AD38" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5299,20 +5433,22 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>214</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5321,7 +5457,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5330,23 +5466,17 @@
         <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5393,11 +5523,15 @@
       <c r="AD39" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5405,20 +5539,22 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5427,7 +5563,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5436,20 +5572,16 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="K40" s="2"/>
+      <c r="L40" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5471,16 +5603,16 @@
         <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5498,13 +5630,13 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
@@ -5513,7 +5645,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5524,9 +5656,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5544,16 +5678,14 @@
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5577,7 +5709,7 @@
         <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>39</v>
@@ -5604,7 +5736,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5619,7 +5751,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5630,7 +5762,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5641,7 +5773,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5650,19 +5782,23 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5683,7 +5819,7 @@
         <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>39</v>
@@ -5709,15 +5845,11 @@
       <c r="AD42" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE42" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>48</v>
-      </c>
+      <c r="AG42" s="2"/>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5725,29 +5857,29 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>39</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5756,21 +5888,23 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5791,7 +5925,7 @@
         <v>39</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>39</v>
@@ -5817,15 +5951,11 @@
       <c r="AD43" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5833,50 +5963,50 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>39</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I44" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -5902,37 +6032,33 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -5941,7 +6067,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -5952,7 +6078,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5975,13 +6101,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6005,7 +6131,7 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>39</v>
@@ -6032,7 +6158,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6047,18 +6173,18 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6081,13 +6207,13 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6111,16 +6237,16 @@
         <v>39</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>39</v>
@@ -6138,7 +6264,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6153,18 +6279,18 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>253</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6172,28 +6298,28 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6244,13 +6370,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6259,13 +6385,13 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>260</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -6290,16 +6416,16 @@
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6365,29 +6491,29 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6396,21 +6522,21 @@
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6446,25 +6572,23 @@
         <v>39</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -6473,10 +6597,10 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6484,9 +6608,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6495,7 +6621,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
@@ -6504,20 +6630,16 @@
         <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="L50" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6542,13 +6664,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6566,13 +6688,13 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -6581,7 +6703,7 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -6592,7 +6714,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6603,7 +6725,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
@@ -6615,17 +6737,15 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6647,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>39</v>
@@ -6674,13 +6794,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -6689,7 +6809,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>286</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -6700,18 +6820,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6723,16 +6843,16 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>290</v>
+        <v>67</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6755,16 +6875,16 @@
         <v>39</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -6782,7 +6902,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6797,7 +6917,7 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -6808,7 +6928,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6816,10 +6936,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6831,22 +6951,24 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>39</v>
@@ -6861,16 +6983,16 @@
         <v>39</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6888,13 +7010,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -6903,7 +7025,7 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -6914,7 +7036,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6922,7 +7044,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>48</v>
@@ -6937,13 +7059,13 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6967,7 +7089,7 @@
         <v>39</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>39</v>
@@ -6994,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7009,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7020,11 +7142,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7037,21 +7159,23 @@
         <v>39</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7100,7 +7224,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7115,18 +7239,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>308</v>
+        <v>127</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>309</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7137,7 +7261,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
@@ -7146,16 +7270,16 @@
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7206,13 +7330,13 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -7221,18 +7345,18 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>39</v>
+        <v>289</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>39</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7252,16 +7376,16 @@
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7288,13 +7412,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7312,7 +7436,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7327,32 +7451,32 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>39</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>39</v>
@@ -7361,17 +7485,15 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7420,13 +7542,13 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -7435,51 +7557,49 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>39</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I59" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7528,13 +7648,13 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -7543,18 +7663,18 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>39</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7574,19 +7694,21 @@
         <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
@@ -7610,13 +7732,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7634,7 +7756,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7652,7 +7774,7 @@
         <v>39</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -7660,7 +7782,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7668,7 +7790,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>48</v>
@@ -7680,18 +7802,20 @@
         <v>39</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K61" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -7716,13 +7840,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -7740,10 +7864,10 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>48</v>
@@ -7755,7 +7879,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7766,7 +7890,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7789,20 +7913,18 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N62" t="s" s="2">
         <v>330</v>
       </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
       </c>
@@ -7850,7 +7972,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7865,17 +7987,1193 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL62">
+  <autoFilter ref="A1:AL73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7885,7 +9183,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
